--- a/src/Data/eco3.7.1_exio3/Product_Concordances.xlsx
+++ b/src/Data/eco3.7.1_exio3/Product_Concordances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Thesis\Modules_Python\pylcaio\src\Data\eco3.7.1_exio3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C2A0A-4957-494D-9985-984382A6B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38DC3A-2E61-4D45-891B-885F416756A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22224" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22224" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description_Exiobase" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="6067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8903" uniqueCount="6067">
   <si>
     <t>EXIO_code</t>
   </si>
@@ -18230,7 +18230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -18303,9 +18303,9 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -20289,7 +20289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2303" workbookViewId="0">
+    <sheetView topLeftCell="A2258" workbookViewId="0">
       <selection activeCell="F2315" sqref="F2315"/>
     </sheetView>
   </sheetViews>
@@ -45921,9 +45921,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C505"/>
+  <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -49927,27 +49929,27 @@
       <c r="B364" t="s">
         <v>5852</v>
       </c>
-      <c r="C364" t="s">
-        <v>140</v>
+      <c r="C364" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>5347</v>
+        <v>5351</v>
       </c>
       <c r="B365" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="C365" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>5351</v>
+        <v>5352</v>
       </c>
       <c r="B366" t="s">
-        <v>5853</v>
+        <v>4377</v>
       </c>
       <c r="C366" t="s">
         <v>130</v>
@@ -49955,10 +49957,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>5352</v>
+        <v>5353</v>
       </c>
       <c r="B367" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="C367" t="s">
         <v>130</v>
@@ -49966,32 +49968,32 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>5353</v>
+        <v>5354</v>
       </c>
       <c r="B368" t="s">
-        <v>4378</v>
+        <v>5854</v>
       </c>
       <c r="C368" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>5354</v>
+        <v>5355</v>
       </c>
       <c r="B369" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="C369" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="B370" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="C370" t="s">
         <v>130</v>
@@ -49999,10 +50001,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>5356</v>
+        <v>5357</v>
       </c>
       <c r="B371" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="C371" t="s">
         <v>130</v>
@@ -50010,10 +50012,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>5357</v>
+        <v>5358</v>
       </c>
       <c r="B372" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="C372" t="s">
         <v>130</v>
@@ -50021,10 +50023,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>5358</v>
+        <v>5359</v>
       </c>
       <c r="B373" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="C373" t="s">
         <v>130</v>
@@ -50032,21 +50034,21 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>5359</v>
+        <v>5360</v>
       </c>
       <c r="B374" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="C374" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>5360</v>
+        <v>5361</v>
       </c>
       <c r="B375" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="C375" t="s">
         <v>140</v>
@@ -50054,10 +50056,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="B376" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="C376" t="s">
         <v>140</v>
@@ -50065,10 +50067,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="B377" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="C377" t="s">
         <v>140</v>
@@ -50076,10 +50078,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="B378" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="C378" t="s">
         <v>140</v>
@@ -50087,10 +50089,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>5364</v>
+        <v>5365</v>
       </c>
       <c r="B379" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="C379" t="s">
         <v>140</v>
@@ -50098,10 +50100,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>5365</v>
+        <v>5366</v>
       </c>
       <c r="B380" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="C380" t="s">
         <v>140</v>
@@ -50109,10 +50111,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>5366</v>
+        <v>5367</v>
       </c>
       <c r="B381" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="C381" t="s">
         <v>140</v>
@@ -50120,10 +50122,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>5367</v>
+        <v>5368</v>
       </c>
       <c r="B382" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="C382" t="s">
         <v>140</v>
@@ -50131,10 +50133,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="B383" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="C383" t="s">
         <v>140</v>
@@ -50142,21 +50144,21 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>5369</v>
+        <v>5370</v>
       </c>
       <c r="B384" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="C384" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>5370</v>
+        <v>5371</v>
       </c>
       <c r="B385" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="C385" t="s">
         <v>130</v>
@@ -50164,10 +50166,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>5371</v>
+        <v>5372</v>
       </c>
       <c r="B386" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="C386" t="s">
         <v>130</v>
@@ -50175,98 +50177,98 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="B387" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="C387" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>5373</v>
+        <v>5374</v>
       </c>
       <c r="B388" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="C388" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="B389" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="C389" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="B390" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="C390" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>5376</v>
+        <v>5377</v>
       </c>
       <c r="B391" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="C391" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>5377</v>
+        <v>5378</v>
       </c>
       <c r="B392" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="C392" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>5378</v>
+        <v>5379</v>
       </c>
       <c r="B393" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="C393" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>5379</v>
+        <v>5380</v>
       </c>
       <c r="B394" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="C394" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>5380</v>
+        <v>5381</v>
       </c>
       <c r="B395" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="C395" t="s">
         <v>129</v>
@@ -50274,54 +50276,54 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>5381</v>
+        <v>5382</v>
       </c>
       <c r="B396" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="C396" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
       <c r="B397" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="C397" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="B398" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="C398" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>5384</v>
+        <v>5385</v>
       </c>
       <c r="B399" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="C399" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>5385</v>
+        <v>5386</v>
       </c>
       <c r="B400" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="C400" t="s">
         <v>132</v>
@@ -50329,10 +50331,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="B401" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
       <c r="C401" t="s">
         <v>132</v>
@@ -50340,10 +50342,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>5387</v>
+        <v>5388</v>
       </c>
       <c r="B402" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="C402" t="s">
         <v>132</v>
@@ -50351,54 +50353,54 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>5388</v>
+        <v>5389</v>
       </c>
       <c r="B403" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="C403" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>5389</v>
+        <v>5390</v>
       </c>
       <c r="B404" t="s">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="C404" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>5390</v>
+        <v>5391</v>
       </c>
       <c r="B405" t="s">
-        <v>5890</v>
+        <v>5891</v>
       </c>
       <c r="C405" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>5391</v>
+        <v>5392</v>
       </c>
       <c r="B406" t="s">
-        <v>5891</v>
+        <v>5892</v>
       </c>
       <c r="C406" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>5392</v>
+        <v>5393</v>
       </c>
       <c r="B407" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="C407" t="s">
         <v>133</v>
@@ -50406,21 +50408,21 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>5393</v>
+        <v>5394</v>
       </c>
       <c r="B408" t="s">
-        <v>5893</v>
+        <v>5894</v>
       </c>
       <c r="C408" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>5394</v>
+        <v>5395</v>
       </c>
       <c r="B409" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="C409" t="s">
         <v>140</v>
@@ -50428,21 +50430,21 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>5395</v>
+        <v>5396</v>
       </c>
       <c r="B410" t="s">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="C410" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>5396</v>
+        <v>5397</v>
       </c>
       <c r="B411" t="s">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="C411" t="s">
         <v>133</v>
@@ -50450,43 +50452,43 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>5397</v>
+        <v>5398</v>
       </c>
       <c r="B412" t="s">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="C412" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>5398</v>
+        <v>5399</v>
       </c>
       <c r="B413" t="s">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="C413" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>5399</v>
+        <v>5400</v>
       </c>
       <c r="B414" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="C414" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>5400</v>
+        <v>5401</v>
       </c>
       <c r="B415" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="C415" t="s">
         <v>131</v>
@@ -50494,10 +50496,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="B416" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="C416" t="s">
         <v>131</v>
@@ -50505,21 +50507,21 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="B417" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="C417" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>5403</v>
+        <v>5404</v>
       </c>
       <c r="B418" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="C418" t="s">
         <v>133</v>
@@ -50527,54 +50529,54 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>5404</v>
+        <v>5405</v>
       </c>
       <c r="B419" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="C419" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="B420" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="C420" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="B421" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="C421" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>5407</v>
+        <v>5408</v>
       </c>
       <c r="B422" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="C422" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>5408</v>
+        <v>5409</v>
       </c>
       <c r="B423" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="C423" t="s">
         <v>135</v>
@@ -50582,10 +50584,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="B424" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="C424" t="s">
         <v>135</v>
@@ -50593,10 +50595,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>5410</v>
+        <v>5411</v>
       </c>
       <c r="B425" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="C425" t="s">
         <v>135</v>
@@ -50604,10 +50606,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="B426" t="s">
-        <v>5911</v>
+        <v>5912</v>
       </c>
       <c r="C426" t="s">
         <v>135</v>
@@ -50615,32 +50617,32 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>5412</v>
+        <v>5413</v>
       </c>
       <c r="B427" t="s">
-        <v>5912</v>
+        <v>5913</v>
       </c>
       <c r="C427" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>5413</v>
+        <v>5414</v>
       </c>
       <c r="B428" t="s">
-        <v>5913</v>
+        <v>5914</v>
       </c>
       <c r="C428" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>5414</v>
+        <v>5415</v>
       </c>
       <c r="B429" t="s">
-        <v>5914</v>
+        <v>5915</v>
       </c>
       <c r="C429" t="s">
         <v>135</v>
@@ -50648,10 +50650,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>5415</v>
+        <v>5416</v>
       </c>
       <c r="B430" t="s">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="C430" t="s">
         <v>135</v>
@@ -50659,10 +50661,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>5416</v>
+        <v>5417</v>
       </c>
       <c r="B431" t="s">
-        <v>5916</v>
+        <v>5917</v>
       </c>
       <c r="C431" t="s">
         <v>135</v>
@@ -50670,21 +50672,21 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>5417</v>
+        <v>5418</v>
       </c>
       <c r="B432" t="s">
-        <v>5917</v>
+        <v>5918</v>
       </c>
       <c r="C432" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>5418</v>
+        <v>5419</v>
       </c>
       <c r="B433" t="s">
-        <v>5918</v>
+        <v>5919</v>
       </c>
       <c r="C433" t="s">
         <v>130</v>
@@ -50692,10 +50694,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="B434" t="s">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="C434" t="s">
         <v>130</v>
@@ -50703,10 +50705,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="B435" t="s">
-        <v>5920</v>
+        <v>5921</v>
       </c>
       <c r="C435" t="s">
         <v>130</v>
@@ -50714,21 +50716,21 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>5421</v>
+        <v>5422</v>
       </c>
       <c r="B436" t="s">
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="C436" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="B437" t="s">
-        <v>5922</v>
+        <v>5923</v>
       </c>
       <c r="C437" t="s">
         <v>135</v>
@@ -50736,21 +50738,21 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="B438" t="s">
-        <v>5923</v>
+        <v>5924</v>
       </c>
       <c r="C438" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>5424</v>
+        <v>5425</v>
       </c>
       <c r="B439" t="s">
-        <v>5924</v>
+        <v>5925</v>
       </c>
       <c r="C439" t="s">
         <v>130</v>
@@ -50758,10 +50760,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>5425</v>
+        <v>5426</v>
       </c>
       <c r="B440" t="s">
-        <v>5925</v>
+        <v>5926</v>
       </c>
       <c r="C440" t="s">
         <v>130</v>
@@ -50769,32 +50771,32 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>5426</v>
+        <v>5427</v>
       </c>
       <c r="B441" t="s">
-        <v>5926</v>
+        <v>5927</v>
       </c>
       <c r="C441" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>5427</v>
+        <v>5428</v>
       </c>
       <c r="B442" t="s">
-        <v>5927</v>
+        <v>5928</v>
       </c>
       <c r="C442" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="B443" t="s">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="C443" t="s">
         <v>130</v>
@@ -50802,10 +50804,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="B444" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="C444" t="s">
         <v>130</v>
@@ -50813,10 +50815,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="B445" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="C445" t="s">
         <v>130</v>
@@ -50824,10 +50826,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="B446" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="C446" t="s">
         <v>130</v>
@@ -50835,10 +50837,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>5432</v>
+        <v>5433</v>
       </c>
       <c r="B447" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="C447" t="s">
         <v>130</v>
@@ -50846,54 +50848,54 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>5433</v>
+        <v>5434</v>
       </c>
       <c r="B448" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="C448" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>5434</v>
+        <v>5435</v>
       </c>
       <c r="B449" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="C449" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>5435</v>
+        <v>5436</v>
       </c>
       <c r="B450" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="C450" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>5436</v>
+        <v>5437</v>
       </c>
       <c r="B451" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="C451" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>5437</v>
+        <v>5438</v>
       </c>
       <c r="B452" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="C452" t="s">
         <v>134</v>
@@ -50901,10 +50903,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>5438</v>
+        <v>5439</v>
       </c>
       <c r="B453" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="C453" t="s">
         <v>134</v>
@@ -50912,10 +50914,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="B454" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="C454" t="s">
         <v>134</v>
@@ -50923,10 +50925,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>5440</v>
+        <v>5441</v>
       </c>
       <c r="B455" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="C455" t="s">
         <v>134</v>
@@ -50934,10 +50936,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="B456" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="C456" t="s">
         <v>134</v>
@@ -50945,10 +50947,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>5442</v>
+        <v>5443</v>
       </c>
       <c r="B457" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="C457" t="s">
         <v>134</v>
@@ -50956,10 +50958,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>5443</v>
+        <v>5444</v>
       </c>
       <c r="B458" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="C458" t="s">
         <v>134</v>
@@ -50967,10 +50969,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>5444</v>
+        <v>5445</v>
       </c>
       <c r="B459" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="C459" t="s">
         <v>134</v>
@@ -50978,10 +50980,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>5445</v>
+        <v>5446</v>
       </c>
       <c r="B460" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="C460" t="s">
         <v>134</v>
@@ -50989,10 +50991,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>5446</v>
+        <v>5447</v>
       </c>
       <c r="B461" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="C461" t="s">
         <v>134</v>
@@ -51000,10 +51002,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>5447</v>
+        <v>5448</v>
       </c>
       <c r="B462" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="C462" t="s">
         <v>134</v>
@@ -51011,10 +51013,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="B463" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="C463" t="s">
         <v>134</v>
@@ -51022,21 +51024,21 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>5449</v>
+        <v>5450</v>
       </c>
       <c r="B464" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="C464" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>5450</v>
+        <v>5451</v>
       </c>
       <c r="B465" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="C465" t="s">
         <v>136</v>
@@ -51044,10 +51046,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>5451</v>
+        <v>5452</v>
       </c>
       <c r="B466" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="C466" t="s">
         <v>136</v>
@@ -51055,10 +51057,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>5452</v>
+        <v>5453</v>
       </c>
       <c r="B467" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="C467" t="s">
         <v>136</v>
@@ -51066,10 +51068,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>5453</v>
+        <v>5454</v>
       </c>
       <c r="B468" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="C468" t="s">
         <v>136</v>
@@ -51077,10 +51079,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>5454</v>
+        <v>5455</v>
       </c>
       <c r="B469" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="C469" t="s">
         <v>136</v>
@@ -51088,10 +51090,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>5455</v>
+        <v>5456</v>
       </c>
       <c r="B470" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="C470" t="s">
         <v>136</v>
@@ -51099,10 +51101,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>5456</v>
+        <v>5457</v>
       </c>
       <c r="B471" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="C471" t="s">
         <v>136</v>
@@ -51110,10 +51112,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>5457</v>
+        <v>5458</v>
       </c>
       <c r="B472" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="C472" t="s">
         <v>136</v>
@@ -51121,10 +51123,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="B473" t="s">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="C473" t="s">
         <v>136</v>
@@ -51132,10 +51134,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>5459</v>
+        <v>5460</v>
       </c>
       <c r="B474" t="s">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="C474" t="s">
         <v>136</v>
@@ -51143,10 +51145,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>5460</v>
+        <v>5461</v>
       </c>
       <c r="B475" t="s">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="C475" t="s">
         <v>136</v>
@@ -51154,10 +51156,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>5461</v>
+        <v>5462</v>
       </c>
       <c r="B476" t="s">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="C476" t="s">
         <v>136</v>
@@ -51165,10 +51167,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="B477" t="s">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="C477" t="s">
         <v>136</v>
@@ -51176,10 +51178,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="B478" t="s">
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="C478" t="s">
         <v>136</v>
@@ -51187,10 +51189,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="B479" t="s">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="C479" t="s">
         <v>136</v>
@@ -51198,10 +51200,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>5465</v>
+        <v>5466</v>
       </c>
       <c r="B480" t="s">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="C480" t="s">
         <v>136</v>
@@ -51209,10 +51211,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="B481" t="s">
-        <v>5966</v>
+        <v>5967</v>
       </c>
       <c r="C481" t="s">
         <v>136</v>
@@ -51220,21 +51222,21 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="B482" t="s">
-        <v>5967</v>
+        <v>5968</v>
       </c>
       <c r="C482" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="B483" t="s">
-        <v>5968</v>
+        <v>5969</v>
       </c>
       <c r="C483" t="s">
         <v>182</v>
@@ -51242,32 +51244,32 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
       <c r="B484" t="s">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="C484" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="B485" t="s">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="C485" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="B486" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="C486" t="s">
         <v>90</v>
@@ -51275,10 +51277,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="B487" t="s">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="C487" t="s">
         <v>90</v>
@@ -51286,10 +51288,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="B488" t="s">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="C488" t="s">
         <v>90</v>
@@ -51297,10 +51299,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="B489" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="C489" t="s">
         <v>90</v>
@@ -51308,21 +51310,21 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="B490" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="C490" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="B491" t="s">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="C491" t="s">
         <v>177</v>
@@ -51330,21 +51332,21 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="B492" t="s">
-        <v>5977</v>
+        <v>5978</v>
       </c>
       <c r="C492" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>5478</v>
+        <v>5479</v>
       </c>
       <c r="B493" t="s">
-        <v>5978</v>
+        <v>5979</v>
       </c>
       <c r="C493" t="s">
         <v>89</v>
@@ -51352,54 +51354,54 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="B494" t="s">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="C494" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>5480</v>
+        <v>5481</v>
       </c>
       <c r="B495" t="s">
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="C495" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="B496" t="s">
-        <v>5981</v>
+        <v>5982</v>
       </c>
       <c r="C496" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>5482</v>
+        <v>5483</v>
       </c>
       <c r="B497" t="s">
-        <v>5982</v>
+        <v>5983</v>
       </c>
       <c r="C497" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="B498" t="s">
-        <v>5983</v>
+        <v>5984</v>
       </c>
       <c r="C498" t="s">
         <v>129</v>
@@ -51407,21 +51409,21 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="B499" t="s">
-        <v>5984</v>
+        <v>5985</v>
       </c>
       <c r="C499" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>5485</v>
+        <v>5486</v>
       </c>
       <c r="B500" t="s">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="C500" t="s">
         <v>136</v>
@@ -51429,10 +51431,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>5486</v>
+        <v>5487</v>
       </c>
       <c r="B501" t="s">
-        <v>5986</v>
+        <v>5987</v>
       </c>
       <c r="C501" t="s">
         <v>136</v>
@@ -51440,45 +51442,34 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="B502" t="s">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="C502" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="B503" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="C503" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="B504" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
       <c r="C504" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>5490</v>
-      </c>
-      <c r="B505" t="s">
-        <v>5990</v>
-      </c>
-      <c r="C505" t="s">
         <v>190</v>
       </c>
     </row>
